--- a/app_excel2txt/test_input.xlsx
+++ b/app_excel2txt/test_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DF583-3116-4574-BD64-7C7C81436896}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55DB9F1-7CA4-485B-A1AB-90F27B590361}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="February 2018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>receiver accout</t>
   </si>
   <si>
-    <t>client account</t>
-  </si>
-  <si>
     <t>client name</t>
   </si>
   <si>
@@ -62,6 +59,21 @@
   </si>
   <si>
     <t>done task5</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>acct1</t>
+  </si>
+  <si>
+    <t>acct3</t>
+  </si>
+  <si>
+    <t>acct2</t>
+  </si>
+  <si>
+    <t>acct4</t>
   </si>
 </sst>
 </file>
@@ -378,103 +390,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F29F1-0629-4BDE-9A36-BF46C11EA186}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="1" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>124</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>223</v>
+      </c>
+      <c r="C3">
+        <v>465</v>
+      </c>
+      <c r="D3">
+        <v>465</v>
+      </c>
+      <c r="F3">
+        <v>456</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>789</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>124</v>
+      </c>
+      <c r="F5">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>456</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19.5</v>
+      </c>
+      <c r="C6">
+        <v>480</v>
+      </c>
+      <c r="D6">
+        <v>480</v>
+      </c>
+      <c r="F6">
+        <v>789</v>
+      </c>
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>789</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>789</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
